--- a/bug-rep2.xlsx
+++ b/bug-rep2.xlsx
@@ -232,7 +232,7 @@
     <t>7. Ввести валидные значения в поле Паспорт</t>
   </si>
   <si>
-    <t>8. Нажать левой кнопкой мыши на кнопку "Отправить"</t>
+    <t>8. Нажать левой кнопкой мыши на кнопку "Отправить"/</t>
   </si>
 </sst>
 </file>
@@ -427,34 +427,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -742,8 +742,8 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -785,320 +785,352 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="16">
         <v>4</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="A12" s="16">
         <v>5</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="I12:I19"/>
     <mergeCell ref="A12:A19"/>
     <mergeCell ref="B12:B19"/>
@@ -1107,38 +1139,6 @@
     <mergeCell ref="E12:E19"/>
     <mergeCell ref="G12:G19"/>
     <mergeCell ref="H12:H19"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="C2 C6 C8 C10 C12">
